--- a/公司文件/文档资料/201903考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201903考勤明细_德贤.xlsx
@@ -23,7 +23,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>德贤2019 02月员工工时</t>
+    <t>德贤2019 03月员工工时</t>
   </si>
   <si>
     <t>王  斌</t>
@@ -508,10 +508,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -547,114 +547,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,6 +578,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -725,6 +725,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -737,37 +773,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,31 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,49 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,6 +958,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -979,45 +1033,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1028,21 +1043,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,148 +1058,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1732,7 +1732,9 @@
       <c r="B3" s="8">
         <v>9</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="8">
+        <v>12</v>
+      </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
@@ -1772,9 +1774,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="8">
-        <v>9</v>
-      </c>
-      <c r="C4" s="13"/>
+        <v>9.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>9</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -1816,7 +1820,9 @@
       <c r="B5" s="8">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="8">
+        <v>8</v>
+      </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>

--- a/公司文件/文档资料/201903考勤明细_德贤.xlsx
+++ b/公司文件/文档资料/201903考勤明细_德贤.xlsx
@@ -548,30 +548,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,6 +622,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,50 +697,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -725,6 +725,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,174 +906,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,16 +958,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -983,21 +983,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1008,6 +993,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,175 +1055,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1735,7 +1735,9 @@
       <c r="C3" s="8">
         <v>12</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1779,7 +1781,9 @@
       <c r="C4" s="8">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="8">
+        <v>12</v>
+      </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -1823,7 +1827,9 @@
       <c r="C5" s="8">
         <v>8</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
